--- a/AkioAILocal/race_exp/大井ダ2000.xlsx
+++ b/AkioAILocal/race_exp/大井ダ2000.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="444">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -291,60 +291,60 @@
     <t>加藤和博</t>
   </si>
   <si>
+    <t>福永祐一</t>
+  </si>
+  <si>
+    <t>松山弘平</t>
+  </si>
+  <si>
+    <t>安藤洋一</t>
+  </si>
+  <si>
+    <t>Ｒ．クア</t>
+  </si>
+  <si>
     <t>瀧川寿希</t>
   </si>
   <si>
+    <t>田中力</t>
+  </si>
+  <si>
+    <t>桜井光輔</t>
+  </si>
+  <si>
+    <t>三浦皇成</t>
+  </si>
+  <si>
+    <t>高松亮</t>
+  </si>
+  <si>
+    <t>藤本現暉</t>
+  </si>
+  <si>
+    <t>橋本直哉</t>
+  </si>
+  <si>
+    <t>阿部龍</t>
+  </si>
+  <si>
+    <t>Ｏ．マー</t>
+  </si>
+  <si>
+    <t>井上幹太</t>
+  </si>
+  <si>
+    <t>中島龍也</t>
+  </si>
+  <si>
+    <t>千田洋</t>
+  </si>
+  <si>
+    <t>佐藤友則</t>
+  </si>
+  <si>
     <t>西啓太</t>
   </si>
   <si>
-    <t>Ｒ．クア</t>
-  </si>
-  <si>
-    <t>福永祐一</t>
-  </si>
-  <si>
-    <t>松山弘平</t>
-  </si>
-  <si>
-    <t>安藤洋一</t>
-  </si>
-  <si>
-    <t>田中力</t>
-  </si>
-  <si>
-    <t>桜井光輔</t>
-  </si>
-  <si>
-    <t>三浦皇成</t>
-  </si>
-  <si>
-    <t>高松亮</t>
-  </si>
-  <si>
-    <t>藤本現暉</t>
-  </si>
-  <si>
-    <t>橋本直哉</t>
-  </si>
-  <si>
-    <t>阿部龍</t>
-  </si>
-  <si>
-    <t>Ｏ．マー</t>
-  </si>
-  <si>
-    <t>井上幹太</t>
-  </si>
-  <si>
-    <t>中島龍也</t>
-  </si>
-  <si>
-    <t>千田洋</t>
-  </si>
-  <si>
-    <t>佐藤友則</t>
-  </si>
-  <si>
     <t>勝浦正樹</t>
   </si>
   <si>
@@ -843,51 +843,42 @@
     <t>オペラハウス</t>
   </si>
   <si>
-    <t>アサクサキングス</t>
-  </si>
-  <si>
-    <t>サクラダイオー</t>
+    <t>アドマイヤマックス</t>
+  </si>
+  <si>
+    <t>サクラローレル</t>
+  </si>
+  <si>
+    <t>カネヒキリ</t>
+  </si>
+  <si>
+    <t>Crafty Prospector</t>
+  </si>
+  <si>
+    <t>アンライバルド</t>
+  </si>
+  <si>
+    <t>シンボリクリスエス</t>
+  </si>
+  <si>
+    <t>ディープインパクト</t>
+  </si>
+  <si>
+    <t>Alydar</t>
+  </si>
+  <si>
+    <t>Successful Appeal</t>
+  </si>
+  <si>
+    <t>Yankee Victor</t>
+  </si>
+  <si>
+    <t>ハーツクライ</t>
   </si>
   <si>
     <t>Hesabull</t>
   </si>
   <si>
-    <t>デュランダル</t>
-  </si>
-  <si>
-    <t>アドマイヤマックス</t>
-  </si>
-  <si>
-    <t>サクラローレル</t>
-  </si>
-  <si>
-    <t>カネヒキリ</t>
-  </si>
-  <si>
-    <t>Crafty Prospector</t>
-  </si>
-  <si>
-    <t>アンライバルド</t>
-  </si>
-  <si>
-    <t>シンボリクリスエス</t>
-  </si>
-  <si>
-    <t>ディープインパクト</t>
-  </si>
-  <si>
-    <t>Alydar</t>
-  </si>
-  <si>
-    <t>Successful Appeal</t>
-  </si>
-  <si>
-    <t>Yankee Victor</t>
-  </si>
-  <si>
-    <t>ハーツクライ</t>
-  </si>
-  <si>
     <t>ディープスカイ</t>
   </si>
   <si>
@@ -1233,124 +1224,112 @@
     <t>園田金盃(G)</t>
   </si>
   <si>
+    <t>平安S(G3)</t>
+  </si>
+  <si>
+    <t>埼玉新聞栄冠賞(G)</t>
+  </si>
+  <si>
+    <t>’17ムーンライトカ(OP)</t>
+  </si>
+  <si>
+    <t>千葉ダートマイル(OP)</t>
+  </si>
+  <si>
+    <t>ムーンビーチ賞競走</t>
+  </si>
+  <si>
+    <t>印西市コスモス賞競走</t>
+  </si>
+  <si>
+    <t>岩手県知事杯OROカ(G)</t>
+  </si>
+  <si>
+    <t>いたばし二輪草特別競</t>
+  </si>
+  <si>
+    <t>三里塚特別</t>
+  </si>
+  <si>
+    <t>しぶやダイバーシティ</t>
+  </si>
+  <si>
+    <t>アーバンステージ長月</t>
+  </si>
+  <si>
+    <t>水彩都市・江東特別競</t>
+  </si>
+  <si>
+    <t>じぶん銀行×SPAT</t>
+  </si>
+  <si>
+    <t>フェイスフルブーツ特</t>
+  </si>
+  <si>
+    <t>陽月特別</t>
+  </si>
+  <si>
+    <t>ロマンティックナイト</t>
+  </si>
+  <si>
+    <t>’17スターバースト(OP)</t>
+  </si>
+  <si>
+    <t>ビヤパーティーAib</t>
+  </si>
+  <si>
+    <t>冬木立賞競走</t>
+  </si>
+  <si>
+    <t>ジョイホース横浜賞</t>
+  </si>
+  <si>
+    <t>ジャパンダートダービ(G1)</t>
+  </si>
+  <si>
+    <t>曼珠沙華特別</t>
+  </si>
+  <si>
+    <t>夕凪賞</t>
+  </si>
+  <si>
+    <t>江戸にぎわい光夜賞競</t>
+  </si>
+  <si>
+    <t>野馬追賞</t>
+  </si>
+  <si>
+    <t>江戸極彩棚田賞競走</t>
+  </si>
+  <si>
+    <t>花園S(1600万下)</t>
+  </si>
+  <si>
+    <t>楠賞(G)</t>
+  </si>
+  <si>
+    <t>師走S(OP)</t>
+  </si>
+  <si>
+    <t>門別軽種馬生産振興会</t>
+  </si>
+  <si>
+    <t>カノープス賞競走</t>
+  </si>
+  <si>
+    <t>朝日セントライト記念(G2)</t>
+  </si>
+  <si>
+    <t>B2六　B3四</t>
+  </si>
+  <si>
+    <t>虹色に輝く光の大噴水</t>
+  </si>
+  <si>
+    <t>THEGENFUKE</t>
+  </si>
+  <si>
     <t>黒潮盃競走(G)</t>
-  </si>
-  <si>
-    <t>ギャラクシー賞競走</t>
-  </si>
-  <si>
-    <t>オーガスト賞競走</t>
-  </si>
-  <si>
-    <t>東京中日スポーツ賞競</t>
-  </si>
-  <si>
-    <t>シューティングスター</t>
-  </si>
-  <si>
-    <t>平安S(G3)</t>
-  </si>
-  <si>
-    <t>埼玉新聞栄冠賞(G)</t>
-  </si>
-  <si>
-    <t>’17ムーンライトカ(OP)</t>
-  </si>
-  <si>
-    <t>千葉ダートマイル(OP)</t>
-  </si>
-  <si>
-    <t>ムーンビーチ賞競走</t>
-  </si>
-  <si>
-    <t>印西市コスモス賞競走</t>
-  </si>
-  <si>
-    <t>岩手県知事杯OROカ(G)</t>
-  </si>
-  <si>
-    <t>いたばし二輪草特別競</t>
-  </si>
-  <si>
-    <t>三里塚特別</t>
-  </si>
-  <si>
-    <t>しぶやダイバーシティ</t>
-  </si>
-  <si>
-    <t>アーバンステージ長月</t>
-  </si>
-  <si>
-    <t>水彩都市・江東特別競</t>
-  </si>
-  <si>
-    <t>じぶん銀行×SPAT</t>
-  </si>
-  <si>
-    <t>フェイスフルブーツ特</t>
-  </si>
-  <si>
-    <t>陽月特別</t>
-  </si>
-  <si>
-    <t>ロマンティックナイト</t>
-  </si>
-  <si>
-    <t>’17スターバースト(OP)</t>
-  </si>
-  <si>
-    <t>ビヤパーティーAib</t>
-  </si>
-  <si>
-    <t>冬木立賞競走</t>
-  </si>
-  <si>
-    <t>ジョイホース横浜賞</t>
-  </si>
-  <si>
-    <t>ジャパンダートダービ(G1)</t>
-  </si>
-  <si>
-    <t>曼珠沙華特別</t>
-  </si>
-  <si>
-    <t>夕凪賞</t>
-  </si>
-  <si>
-    <t>江戸にぎわい光夜賞競</t>
-  </si>
-  <si>
-    <t>野馬追賞</t>
-  </si>
-  <si>
-    <t>江戸極彩棚田賞競走</t>
-  </si>
-  <si>
-    <t>花園S(1600万下)</t>
-  </si>
-  <si>
-    <t>楠賞(G)</t>
-  </si>
-  <si>
-    <t>師走S(OP)</t>
-  </si>
-  <si>
-    <t>門別軽種馬生産振興会</t>
-  </si>
-  <si>
-    <t>カノープス賞競走</t>
-  </si>
-  <si>
-    <t>朝日セントライト記念(G2)</t>
-  </si>
-  <si>
-    <t>B2六　B3四</t>
-  </si>
-  <si>
-    <t>虹色に輝く光の大噴水</t>
-  </si>
-  <si>
-    <t>THEGENFUKE</t>
   </si>
   <si>
     <t>芙蓉賞(OP)</t>
@@ -1772,10 +1751,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>17.85714285714286</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1787,13 +1766,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>73.91304347826086</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>17.39130434782609</v>
+        <v>13.63636363636363</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1807,22 +1786,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>7.142857142857142</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>60.86956521739131</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>8.695652173913043</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1833,28 +1812,28 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>32.25806451612903</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>27.84810126582278</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>60.86956521739131</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>31.81818181818182</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1865,28 +1844,28 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>38.23529411764706</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>39.1304347826087</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>34.78260869565217</v>
+        <v>31.81818181818182</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1900,25 +1879,25 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>7.692307692307693</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>32.55813953488372</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="G6">
         <v>7</v>
       </c>
       <c r="H6">
-        <v>30.43478260869566</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="I6">
         <v>7</v>
       </c>
       <c r="J6">
-        <v>30.43478260869566</v>
+        <v>31.81818181818182</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1932,25 +1911,25 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="E7">
         <v>13</v>
       </c>
       <c r="F7">
-        <v>26.53061224489796</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>4.347826086956522</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7">
-        <v>17.39130434782609</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1964,25 +1943,25 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>26.19047619047619</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>16.21621621621622</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1996,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <v>29.54545454545455</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2008,13 +1987,13 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
       <c r="J9">
-        <v>26.08695652173913</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2391,10 +2370,10 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>57.14285714285714</v>
+        <v>53.84615384615385</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2952,10 +2931,10 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3190,10 +3169,10 @@
         <v>64</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3632,10 +3611,10 @@
         <v>90</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3649,10 +3628,10 @@
         <v>91</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>49.625</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3683,10 +3662,10 @@
         <v>93</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3700,10 +3679,10 @@
         <v>94</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>49.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3951,7 +3930,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3985,7 +3964,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4002,7 +3981,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>2.173913043478261</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4019,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4036,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4053,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4104,7 +4083,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>2.173913043478261</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4138,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4172,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4223,7 +4202,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4240,7 +4219,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4257,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4291,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4308,7 +4287,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4376,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4393,7 +4372,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4410,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4427,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4512,7 +4491,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4614,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>2.173913043478261</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4631,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4648,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4665,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4682,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4733,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4883,10 +4862,10 @@
         <v>162</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.7246376811594203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4920,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5053,10 +5032,10 @@
         <v>172</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1.449275362318841</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5073,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5175,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5209,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5226,7 +5205,7 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <v>4.347826086956522</v>
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5243,7 +5222,7 @@
         <v>2</v>
       </c>
       <c r="E76">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5362,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5379,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5396,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5447,7 +5426,7 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5532,7 +5511,7 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5549,7 +5528,7 @@
         <v>9</v>
       </c>
       <c r="E94">
-        <v>6.521739130434782</v>
+        <v>6.818181818181817</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5600,7 +5579,7 @@
         <v>4</v>
       </c>
       <c r="E97">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5617,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5634,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="E99">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5753,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5770,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5787,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5974,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6161,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="E130">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -6178,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="E131">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -6195,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="E132">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -6263,7 +6242,7 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -6280,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6464,10 +6443,10 @@
         <v>255</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>1.449275362318841</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6535,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="E152">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6552,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6620,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="E157">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6688,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="E161">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6787,10 +6766,10 @@
         <v>274</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>0.7246376811594203</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6804,10 +6783,10 @@
         <v>275</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0.7246376811594203</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6824,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="E169">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6855,10 +6834,10 @@
         <v>278</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>2.173913043478261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6872,10 +6851,10 @@
         <v>279</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>2.173913043478261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6889,10 +6868,10 @@
         <v>280</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>0.7246376811594203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -7025,10 +7004,10 @@
         <v>288</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -7076,10 +7055,10 @@
         <v>291</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -7263,10 +7242,10 @@
         <v>302</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -7280,10 +7259,10 @@
         <v>303</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7297,10 +7276,10 @@
         <v>304</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7314,10 +7293,10 @@
         <v>305</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7331,10 +7310,10 @@
         <v>306</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>0.7246376811594203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7348,10 +7327,10 @@
         <v>307</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>0.7246376811594203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7416,10 +7395,10 @@
         <v>311</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7467,10 +7446,10 @@
         <v>314</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7535,10 +7514,10 @@
         <v>318</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7552,10 +7531,10 @@
         <v>319</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7586,10 +7565,10 @@
         <v>321</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E214">
-        <v>0.7246376811594203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7603,10 +7582,10 @@
         <v>322</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215">
-        <v>0.7246376811594203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7691,57 +7670,6 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" t="s">
-        <v>328</v>
-      </c>
-      <c r="C221" t="s">
-        <v>328</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" t="s">
-        <v>329</v>
-      </c>
-      <c r="C222" t="s">
-        <v>329</v>
-      </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="E222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" t="s">
-        <v>330</v>
-      </c>
-      <c r="C223" t="s">
-        <v>330</v>
-      </c>
-      <c r="D223">
-        <v>0</v>
-      </c>
-      <c r="E223">
         <v>0</v>
       </c>
     </row>
@@ -7752,7 +7680,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7777,16 +7705,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7794,16 +7722,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7811,16 +7739,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7828,16 +7756,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7845,10 +7773,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7862,10 +7790,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7879,10 +7807,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -7896,10 +7824,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -7913,10 +7841,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -7930,16 +7858,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7947,16 +7875,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7964,16 +7892,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7981,10 +7909,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -7998,10 +7926,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -8015,16 +7943,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8032,10 +7960,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -8049,10 +7977,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -8066,10 +7994,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -8083,16 +8011,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8100,16 +8028,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8117,16 +8045,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C22" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8134,10 +8062,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -8151,10 +8079,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -8168,10 +8096,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -8185,10 +8113,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -8202,10 +8130,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -8219,16 +8147,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8236,10 +8164,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -8253,10 +8181,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -8270,10 +8198,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -8287,10 +8215,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -8304,10 +8232,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -8321,10 +8249,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -8338,16 +8266,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8355,16 +8283,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8372,10 +8300,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C37" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -8389,10 +8317,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -8406,10 +8334,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C39" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -8423,10 +8351,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -8440,10 +8368,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -8457,10 +8385,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -8474,10 +8402,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -8491,10 +8419,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C44" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -8508,10 +8436,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C45" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -8525,10 +8453,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C46" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -8542,10 +8470,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -8559,16 +8487,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C48" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -8576,16 +8504,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C49" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -8593,10 +8521,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C50" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -8610,10 +8538,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -8627,10 +8555,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -8644,10 +8572,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C53" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -8661,10 +8589,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C54" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -8678,16 +8606,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C55" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D55">
         <v>14</v>
       </c>
       <c r="E55">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -8695,10 +8623,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -8712,10 +8640,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C57" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8729,10 +8657,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C58" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8746,10 +8674,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C59" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8763,10 +8691,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8780,10 +8708,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C61" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8797,16 +8725,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C62" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -8814,16 +8742,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C63" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -8831,10 +8759,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C64" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8848,16 +8776,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C65" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -8865,16 +8793,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C66" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -8882,10 +8810,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C67" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8899,10 +8827,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C68" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -8916,10 +8844,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C69" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -8933,10 +8861,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C70" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -8950,10 +8878,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C71" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -8967,10 +8895,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C72" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -8984,10 +8912,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C73" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9001,10 +8929,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C74" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9018,16 +8946,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C75" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -9035,16 +8963,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -9052,16 +8980,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C77" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -9069,10 +8997,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C78" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -9086,10 +9014,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C79" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -9103,16 +9031,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C80" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -9120,16 +9048,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C81" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -9137,16 +9065,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C82" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -9154,10 +9082,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C83" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -9171,10 +9099,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C84" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -9188,16 +9116,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C85" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -9205,16 +9133,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C86" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -9222,16 +9150,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C87" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>2.898550724637681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -9239,10 +9167,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C88" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -9256,10 +9184,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C89" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -9273,16 +9201,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C90" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -9290,16 +9218,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C91" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -9307,10 +9235,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -9324,10 +9252,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C93" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -9341,10 +9269,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C94" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -9358,16 +9286,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -9375,16 +9303,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -9392,10 +9320,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -9409,10 +9337,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -9426,10 +9354,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -9443,16 +9371,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C100" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -9460,16 +9388,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C101" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -9477,10 +9405,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C102" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -9494,10 +9422,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C103" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -9511,10 +9439,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C104" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -9528,10 +9456,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C105" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -9545,16 +9473,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C106" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -9562,16 +9490,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C107" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -9579,16 +9507,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C108" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -9596,10 +9524,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C109" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -9613,10 +9541,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C110" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -9630,16 +9558,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C111" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -9647,16 +9575,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C112" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -9664,16 +9592,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C113" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -9681,10 +9609,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C114" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -9698,10 +9626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C115" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -9715,83 +9643,15 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C116" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>446</v>
-      </c>
-      <c r="C117" t="s">
-        <v>446</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>447</v>
-      </c>
-      <c r="C118" t="s">
-        <v>447</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>448</v>
-      </c>
-      <c r="C119" t="s">
-        <v>448</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>449</v>
-      </c>
-      <c r="C120" t="s">
-        <v>449</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
         <v>0</v>
       </c>
     </row>
@@ -9918,10 +9778,10 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>57.14285714285714</v>
+        <v>53.84615384615385</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10479,10 +10339,10 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -10717,10 +10577,10 @@
         <v>64</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -11159,10 +11019,10 @@
         <v>90</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -11176,10 +11036,10 @@
         <v>91</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>49.625</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -11210,10 +11070,10 @@
         <v>93</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -11227,10 +11087,10 @@
         <v>94</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>49.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -11486,7 +11346,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11494,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>126.3159420289854</v>
+        <v>126.1242424242423</v>
       </c>
     </row>
   </sheetData>
